--- a/medicine/Enfance/Andrée_Clair/Andrée_Clair.xlsx
+++ b/medicine/Enfance/Andrée_Clair/Andrée_Clair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Clair</t>
+          <t>Andrée_Clair</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrée Clair (nom de plume de Renée Jung), née le 6 mai 1916 à Malakoff et morte le 17 mai 2009 à Dreux[1], est une enseignante, une ethnologue et une femme de lettres française, auteure de nombreux ouvrages pour la jeunesse et sur l'Afrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrée Clair (nom de plume de Renée Jung), née le 6 mai 1916 à Malakoff et morte le 17 mai 2009 à Dreux, est une enseignante, une ethnologue et une femme de lettres française, auteure de nombreux ouvrages pour la jeunesse et sur l'Afrique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9e_Clair</t>
+          <t>Andrée_Clair</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrée Clair grandit dans la banlieue parisienne[2]. Son père est contrôleur aux PTT et sa mère femme au foyer[2]. Elle poursuit des études supérieures à l'Institut d'ethnologie à la Sorbonne. Elle se spécialise sur l'Afrique subsaharienne et termine ses études par une licence ès lettres[3].
-Elle devient ensuite critique littéraire de livres pour enfants et de livres sur l'Afrique subsaharienne, et lectrice pour la maison d'édition Présence africaine. Elle travaille aussi pour le département Afrique noire du Musée de l'Homme. Finalement, elle obtient un poste d'assistante en ethnologie à l'Institut d'études centrafricaines à Brazzaville, puis comme professeur au Tchad. Elle visite neuf pays de l'Afrique de l'Ouest et de l'Afrique équatoriale[4], avec divers emplois en tant qu'enseignante[3].
-Militante communiste, elle est rapatriée d'office en 1949 pour avoir contribué au développement du mouvement syndical africain[5].
-Elle écrit de nombreux ouvrages se déroulant en Afrique ou inspirés par l'Afrique, et destinés aux enfants[6],[7]. Elle publie également des poèmes et des livres plus spécialisés. Elle tisse un lien particulier avec le Niger[8]. Boubou Hama, président de longue date de l'Assemblée nationale du Niger et poète, est co-auteur de plusieurs de ses livres[3],[8].
-Elle retourne en Afrique après les indépendances et, de 1961 à 1974, devient la conseillère culturelle auprès du président Hamani Diori[2]. Elle participe à des conférences sur le Niger et l'Afrique subsaharienne, ainsi que sur l'enfance et la jeunesse et publie dans plusieurs magazines des articles sur ces thèmes[4]. Lorsque Hamani Diori est renversé par un coup d'État militaire en 1974, elle est contrainte de rentrer en France, à Paris puis à Dreux où elle prend sa retraite[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrée Clair grandit dans la banlieue parisienne. Son père est contrôleur aux PTT et sa mère femme au foyer. Elle poursuit des études supérieures à l'Institut d'ethnologie à la Sorbonne. Elle se spécialise sur l'Afrique subsaharienne et termine ses études par une licence ès lettres.
+Elle devient ensuite critique littéraire de livres pour enfants et de livres sur l'Afrique subsaharienne, et lectrice pour la maison d'édition Présence africaine. Elle travaille aussi pour le département Afrique noire du Musée de l'Homme. Finalement, elle obtient un poste d'assistante en ethnologie à l'Institut d'études centrafricaines à Brazzaville, puis comme professeur au Tchad. Elle visite neuf pays de l'Afrique de l'Ouest et de l'Afrique équatoriale, avec divers emplois en tant qu'enseignante.
+Militante communiste, elle est rapatriée d'office en 1949 pour avoir contribué au développement du mouvement syndical africain.
+Elle écrit de nombreux ouvrages se déroulant en Afrique ou inspirés par l'Afrique, et destinés aux enfants,. Elle publie également des poèmes et des livres plus spécialisés. Elle tisse un lien particulier avec le Niger. Boubou Hama, président de longue date de l'Assemblée nationale du Niger et poète, est co-auteur de plusieurs de ses livres,.
+Elle retourne en Afrique après les indépendances et, de 1961 à 1974, devient la conseillère culturelle auprès du président Hamani Diori. Elle participe à des conférences sur le Niger et l'Afrique subsaharienne, ainsi que sur l'enfance et la jeunesse et publie dans plusieurs magazines des articles sur ces thèmes. Lorsque Hamani Diori est renversé par un coup d'État militaire en 1974, elle est contrainte de rentrer en France, à Paris puis à Dreux où elle prend sa retraite.
 </t>
         </is>
       </c>
